--- a/Template_Test_case.xlsx
+++ b/Template_Test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton-PC\git\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E2664-B6EC-4AB3-AED6-65FA7EA25235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF38830-C9CC-44BA-BBE9-07E6688278B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10605" yWindow="2745" windowWidth="15105" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case" sheetId="1" r:id="rId1"/>
@@ -422,12 +422,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{49F43BBC-860B-45E2-B26E-2D776A74E680}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Приоритет</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{DCF34F9B-5B03-448B-807A-8AC0DC0BF64B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Серъезность</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -1020,7 +1072,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1282,7 +1334,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1403,12 +1455,20 @@
       <c r="N7" s="10"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1494,13 +1554,13 @@
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B15</xm:sqref>
+          <xm:sqref>B7:B8 B10:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Data!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C15</xm:sqref>
+          <xm:sqref>C7:C8 C10:C15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select" xr:uid="{CB6C51AD-703A-41C6-813D-5DB2ACBC5650}">
           <x14:formula1>

--- a/Template_Test_case.xlsx
+++ b/Template_Test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton-PC\git\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF38830-C9CC-44BA-BBE9-07E6688278B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036264E-91A2-49F5-B201-872DA368095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10605" yWindow="2745" windowWidth="15105" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -1466,9 +1466,7 @@
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="17"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
